--- a/data/predictions/race/aff_act_hrt_wht/overall/democrat.xlsx
+++ b/data/predictions/race/aff_act_hrt_wht/overall/democrat.xlsx
@@ -712,7 +712,7 @@
         <v>0.1150151690285698</v>
       </c>
       <c r="G34">
-        <v>0.4251846170658675</v>
+        <v>0.4855790617799632</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -726,7 +726,7 @@
         <v>0.1027897734341771</v>
       </c>
       <c r="G35">
-        <v>0.4251846170658675</v>
+        <v>0.4690676515324845</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -740,7 +740,7 @@
         <v>0.09096271562821023</v>
       </c>
       <c r="G36">
-        <v>0.4251846170658675</v>
+        <v>0.4766516585368449</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -754,7 +754,7 @@
         <v>0.07946725204804636</v>
       </c>
       <c r="G37">
-        <v>0.4251846170658675</v>
+        <v>0.4624526337061008</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -768,7 +768,7 @@
         <v>0.06824782236117796</v>
       </c>
       <c r="G38">
-        <v>0.4251846170658675</v>
+        <v>0.4704712304899046</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -782,7 +782,7 @@
         <v>0.05725817565699975</v>
       </c>
       <c r="G39">
-        <v>0.4251846170658675</v>
+        <v>0.5153778292361625</v>
       </c>
     </row>
   </sheetData>
